--- a/เช็คชื่อ/[2021-09-06] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-09-06] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD0B43A-6FA8-431B-9493-EC41AEA66875}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DF7FBC-9ECE-4494-AB96-222BD99B1FB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="765" windowWidth="17280" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="38">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>ติดฝน</t>
+  </si>
+  <si>
+    <t>ไฟดับ</t>
   </si>
 </sst>
 </file>
@@ -488,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C581" sqref="C581"/>
+    <sheetView tabSelected="1" topLeftCell="A554" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H571" sqref="H571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8331,11 +8334,15 @@
       <c r="B573" t="s">
         <v>7</v>
       </c>
-      <c r="C573" s="10"/>
+      <c r="C573" s="10">
+        <v>0.8125</v>
+      </c>
       <c r="D573" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E573" s="9"/>
+      <c r="E573" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574">
@@ -8373,11 +8380,15 @@
       <c r="B576" t="s">
         <v>16</v>
       </c>
-      <c r="C576" s="2"/>
+      <c r="C576" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D576" t="s">
-        <v>35</v>
-      </c>
-      <c r="E576" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E576" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577">
